--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2303.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2303.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.170062393476329</v>
+        <v>1.04111635684967</v>
       </c>
       <c r="B1">
-        <v>2.598117355699959</v>
+        <v>1.817053198814392</v>
       </c>
       <c r="C1">
-        <v>2.310885325976087</v>
+        <v>2.626778841018677</v>
       </c>
       <c r="D1">
-        <v>2.545092676215492</v>
+        <v>2.414323568344116</v>
       </c>
       <c r="E1">
-        <v>3.174469227789776</v>
+        <v>0.4521180391311646</v>
       </c>
     </row>
   </sheetData>
